--- a/OptionsUseSummary.xlsx
+++ b/OptionsUseSummary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>Option Name</t>
   </si>
@@ -237,12 +237,6 @@
     <t>Quick to add more. Costs come from retro &amp; missing for most!</t>
   </si>
   <si>
-    <t>Check R-values for UsrSpec - Effective or Nominal?</t>
-  </si>
-  <si>
-    <t>Almost all UsrSpec &amp; R-values NOT effective!</t>
-  </si>
-  <si>
     <t>Mapping issues with Espr. More TESTING!</t>
   </si>
   <si>
@@ -261,13 +255,19 @@
     <t>7 to add</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>29 or so to add</t>
-  </si>
-  <si>
     <t>Add rates created from from Perlscript</t>
+  </si>
+  <si>
+    <t>24 or so to add - if can decipher!</t>
+  </si>
+  <si>
+    <t>Add in "retro_" constructions</t>
+  </si>
+  <si>
+    <t>All UsrSpec. Added in so can match ESP-r choice!</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -637,15 +637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="4" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" style="4" customWidth="1"/>
@@ -697,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -763,10 +761,10 @@
         <v>35</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -811,39 +809,36 @@
       <c r="F7" s="4">
         <v>40</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>43</v>
@@ -852,24 +847,24 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4">
         <v>4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
@@ -878,15 +873,15 @@
         <v>35</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -901,15 +896,15 @@
         <v>35</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -924,15 +919,15 @@
         <v>35</v>
       </c>
       <c r="F12" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -947,15 +942,15 @@
         <v>35</v>
       </c>
       <c r="F13" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
@@ -970,15 +965,15 @@
         <v>35</v>
       </c>
       <c r="F14" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
@@ -990,18 +985,18 @@
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -1013,18 +1008,18 @@
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>81</v>
+        <v>36</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -1033,38 +1028,61 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
+      <c r="F17" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="4">
         <v>4</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1076,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,17 +1210,20 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
@@ -1210,48 +1231,40 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
         <v>57</v>
       </c>
     </row>
